--- a/file_export/nang_luong/quyetdinh_form.xlsx
+++ b/file_export/nang_luong/quyetdinh_form.xlsx
@@ -18,16 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
     <t>Số:</t>
-  </si>
-  <si>
-    <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
   </si>
   <si>
     <t>Hà Nội,</t>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Trung ương Đoàn và đồng chí </t>
+  </si>
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
@@ -198,26 +198,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -535,112 +535,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -655,132 +655,138 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="E21" s="5" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="E22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A11:I11"/>
@@ -789,12 +795,6 @@
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
